--- a/crowd_only/data/final_eval/analysis/testset_machine_gold_no_crowd_with_ner_filter.xlsx
+++ b/crowd_only/data/final_eval/analysis/testset_machine_gold_no_crowd_with_ner_filter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>pmid</t>
   </si>
@@ -50,256 +50,280 @@
     <t>rel_origin</t>
   </si>
   <si>
+    <t>andrew_final_decision</t>
+  </si>
+  <si>
+    <t>ben_crowd_wrong</t>
+  </si>
+  <si>
+    <t>ben_task_limitation</t>
+  </si>
+  <si>
+    <t>ben_gold_error</t>
+  </si>
+  <si>
+    <t>ben_reason</t>
+  </si>
+  <si>
+    <t>toby_crowd_wrong</t>
+  </si>
+  <si>
+    <t>toby_task_limitation</t>
+  </si>
+  <si>
+    <t>toby_gold_error</t>
+  </si>
+  <si>
+    <t>error_reason</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>MESH:D014031</t>
+  </si>
+  <si>
+    <t>MESH:D053099</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=256433</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932431</t>
+  </si>
+  <si>
+    <t>sentence_task</t>
+  </si>
+  <si>
+    <t>lack_of_context</t>
+  </si>
+  <si>
+    <t>Sentence taken out of context. Needed to see previous two sentences, which say that “Azotemia was the major side effect”</t>
+  </si>
+  <si>
+    <t>MESH:D017275</t>
+  </si>
+  <si>
+    <t>MESH:D006261</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=1451544</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932296</t>
+  </si>
+  <si>
+    <t>Sentence shown to crowd does not state what was the cause of the main side effects. Needed to see previous two sentences saying that isradipine was tested as a drug in Hong Kong.</t>
+  </si>
+  <si>
+    <t>MESH:D000420</t>
+  </si>
+  <si>
+    <t>MESH:D014202</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=2782734</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767273/units/773936493</t>
+  </si>
+  <si>
+    <t>abstract_task</t>
+  </si>
+  <si>
+    <t>false_relation</t>
+  </si>
+  <si>
+    <t>Text states that salbutamol is known to improve the airway response in asthmatic patients, and that the authors are testing for other effects of salbutamol. In the last sentence, the text states that both the “frequency and severity” of “adverse effects” were reduced after high dose salbutamol, such as “tremor and palpitations”. It therefore seems like this is a gold error and that salbutamol reduces tremor.</t>
+  </si>
+  <si>
+    <t>MESH:D004317</t>
+  </si>
+  <si>
+    <t>MESH:D066126</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=6631522</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933048</t>
+  </si>
+  <si>
+    <t>lack_of_comprehension</t>
+  </si>
+  <si>
+    <t>In general we did not tell the crowd how to treat this kind of relation, but workers should have been able to guess based on the sentence.</t>
+  </si>
+  <si>
+    <t>MESH:D017239</t>
+  </si>
+  <si>
+    <t>MESH:D006402</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=7644931</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933171</t>
+  </si>
+  <si>
+    <t>Need to see the previous sentence to know that the toxicities were from another trial with just paclitaxel, and therefore caused by paclitaxel.</t>
+  </si>
+  <si>
+    <t>MESH:D004280</t>
+  </si>
+  <si>
+    <t>MESH:D006973</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9382023</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933447</t>
+  </si>
+  <si>
+    <t>note that at 3/5 they would have got it</t>
+  </si>
+  <si>
+    <t>Can determine the relation from the first sentence in the abstract. Crowd seemed to miss this relation due to a judgment error.</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933448</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933449</t>
+  </si>
+  <si>
+    <t>MESH:C020731</t>
+  </si>
+  <si>
+    <t>MESH:D014839</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9578276</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767273/units/773936531</t>
+  </si>
+  <si>
+    <t>Text states that there were zero cases of vomiting.</t>
+  </si>
+  <si>
+    <t>MESH:D015746</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767273/units/773936537</t>
+  </si>
+  <si>
+    <t>Text says that there were zero recorded cases of abdominal pain.</t>
+  </si>
+  <si>
+    <t>MESH:D017682</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=10677406</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773933567</t>
+  </si>
+  <si>
+    <t>though you have to know what 'mycardial stunning' means</t>
+  </si>
+  <si>
+    <t>Crowd should have been able to determine that since text states prolonged reversible left ventricular dysfunction is the same as myocardial stunning, that the relation is true.</t>
+  </si>
+  <si>
+    <t>MESH:D017706</t>
+  </si>
+  <si>
+    <t>MESH:D006947</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=11176729</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767273/units/773937672</t>
+  </si>
+  <si>
+    <t>Crowd missed the relation, but the text is less explicit than what is normally expected.</t>
+  </si>
+  <si>
+    <t>MESH:D018967</t>
+  </si>
+  <si>
+    <t>MESH:D015430</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=17151160</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773934124</t>
+  </si>
+  <si>
+    <t>Crowd should have been able to tell based on the sentence, but seeing the entire abstract would have helped, since the last sentence in the conclusion states that “both medications caused substantial rapid weight gain”</t>
+  </si>
+  <si>
+    <t>MESH:D003907</t>
+  </si>
+  <si>
+    <t>MESH:D010523</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=23892921</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767273/units/773935999</t>
+  </si>
+  <si>
+    <t>Crowd missed the relation. Maybe the two concepts are far apart?</t>
+  </si>
+  <si>
+    <t>MESH:D008130</t>
+  </si>
+  <si>
+    <t>MESH:D009503</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24659727</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773931955</t>
+  </si>
+  <si>
+    <t>Sentence supports the relation, but it would have helped workers to see the entire context.</t>
+  </si>
+  <si>
+    <t>MESH:D010433</t>
+  </si>
+  <si>
+    <t>MESH:D003072</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24802403</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932074</t>
+  </si>
+  <si>
+    <t>Again, possible for crowd to determine based on the sentence alone, but would have been much easier if they saw the entire abstract.</t>
+  </si>
+  <si>
+    <t>MESH:D000157</t>
+  </si>
+  <si>
+    <t>MESH:D011041</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24840785</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932090</t>
+  </si>
+  <si>
     <t>crowd_wrong</t>
   </si>
   <si>
-    <t>task_limitation</t>
-  </si>
-  <si>
-    <t>gold_error</t>
-  </si>
-  <si>
-    <t>error_reason</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>MESH:D014031</t>
-  </si>
-  <si>
-    <t>MESH:D053099</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=256433</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932431</t>
-  </si>
-  <si>
-    <t>sentence_task</t>
-  </si>
-  <si>
-    <t>lack_of_context</t>
-  </si>
-  <si>
-    <t>Sentence taken out of context. Needed to see previous two sentences, which say that “Azotemia was the major side effect”</t>
-  </si>
-  <si>
-    <t>MESH:D017275</t>
-  </si>
-  <si>
-    <t>MESH:D006261</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=1451544</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932296</t>
-  </si>
-  <si>
-    <t>Sentence shown to crowd does not state what was the cause of the main side effects. Needed to see previous two sentences saying that isradipine was tested as a drug in Hong Kong.</t>
-  </si>
-  <si>
-    <t>MESH:D000420</t>
-  </si>
-  <si>
-    <t>MESH:D014202</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=2782734</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767273/units/773936493</t>
-  </si>
-  <si>
-    <t>abstract_task</t>
-  </si>
-  <si>
-    <t>false_relation</t>
-  </si>
-  <si>
-    <t>Text states that salbutamol is known to improve the airway response in asthmatic patients, and that the authors are testing for other effects of salbutamol. In the last sentence, the text states that both the “frequency and severity” of “adverse effects” were reduced after high dose salbutamol, such as “tremor and palpitations”. It therefore seems like this is a gold error and that salbutamol reduces tremor.</t>
-  </si>
-  <si>
-    <t>MESH:D004317</t>
-  </si>
-  <si>
-    <t>MESH:D066126</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=6631522</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933048</t>
-  </si>
-  <si>
-    <t>lack_of_comprehension</t>
-  </si>
-  <si>
-    <t>In general we did not tell the crowd how to treat this kind of relation, but workers should have been able to guess based on the sentence.</t>
-  </si>
-  <si>
-    <t>MESH:D017239</t>
-  </si>
-  <si>
-    <t>MESH:D006402</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=7644931</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933171</t>
-  </si>
-  <si>
-    <t>Need to see the previous sentence to know that the toxicities were from another trial with just paclitaxel, and therefore caused by paclitaxel.</t>
-  </si>
-  <si>
-    <t>MESH:D004280</t>
-  </si>
-  <si>
-    <t>MESH:D006973</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9382023</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933447</t>
-  </si>
-  <si>
-    <t>Can determine the relation from the first sentence in the abstract. Crowd seemed to miss this relation due to a judgment error.</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933448</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933449</t>
-  </si>
-  <si>
-    <t>MESH:C020731</t>
-  </si>
-  <si>
-    <t>MESH:D014839</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9578276</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767273/units/773936531</t>
-  </si>
-  <si>
-    <t>Text states that there were zero cases of vomiting.</t>
-  </si>
-  <si>
-    <t>MESH:D015746</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767273/units/773936537</t>
-  </si>
-  <si>
-    <t>Text says that there were zero recorded cases of abdominal pain.</t>
-  </si>
-  <si>
-    <t>MESH:D017682</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=10677406</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773933567</t>
-  </si>
-  <si>
-    <t>Crowd should have been able to determine that since text states prolonged reversible left ventricular dysfunction is the same as myocardial stunning, that the relation is true.</t>
-  </si>
-  <si>
-    <t>MESH:D017706</t>
-  </si>
-  <si>
-    <t>MESH:D006947</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=11176729</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767273/units/773937672</t>
-  </si>
-  <si>
-    <t>Crowd missed the relation, but the text is less explicit than what is normally expected.</t>
-  </si>
-  <si>
-    <t>MESH:D018967</t>
-  </si>
-  <si>
-    <t>MESH:D015430</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=17151160</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773934124</t>
-  </si>
-  <si>
-    <t>Crowd should have been able to tell based on the sentence, but seeing the entire abstract would have helped, since the last sentence in the conclusion states that “both medications caused substantial rapid weight gain”</t>
-  </si>
-  <si>
-    <t>MESH:D003907</t>
-  </si>
-  <si>
-    <t>MESH:D010523</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=23892921</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767273/units/773935999</t>
-  </si>
-  <si>
-    <t>Crowd missed the relation. Maybe the two concepts are far apart?</t>
-  </si>
-  <si>
-    <t>MESH:D008130</t>
-  </si>
-  <si>
-    <t>MESH:D009503</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24659727</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773931955</t>
-  </si>
-  <si>
-    <t>Sentence supports the relation, but it would have helped workers to see the entire context.</t>
-  </si>
-  <si>
-    <t>MESH:D010433</t>
-  </si>
-  <si>
-    <t>MESH:D003072</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24802403</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932074</t>
-  </si>
-  <si>
-    <t>Again, possible for crowd to determine based on the sentence alone, but would have been much easier if they saw the entire abstract.</t>
-  </si>
-  <si>
-    <t>MESH:D000157</t>
-  </si>
-  <si>
-    <t>MESH:D011041</t>
-  </si>
-  <si>
-    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24840785</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932090</t>
-  </si>
-  <si>
-    <t>The two sentences shown to the crowd do not explicitly support a relation, but the full text does by providing more context.</t>
+    <t>The two sentences shown to the crowd do not explicitly support a relation, but the full text does by providing more context. Workers could have determined the relation though.</t>
   </si>
   <si>
     <t>https://crowdflower.com/jobs/767262/units/773932091</t>
@@ -327,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -366,13 +390,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -391,7 +428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,8 +452,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,15 +469,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -446,13 +555,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19:P19"/>
+      <selection pane="topLeft" activeCell="U19" activeCellId="0" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.9030612244898"/>
@@ -510,16 +619,31 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>256433</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -537,28 +661,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,10 +699,10 @@
         <v>1451544</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -587,28 +720,37 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>27</v>
+      <c r="U3" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,10 +758,10 @@
         <v>2782734</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -637,28 +779,37 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,10 +817,10 @@
         <v>6631522</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -687,28 +838,37 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>40</v>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,10 +876,10 @@
         <v>7644931</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -737,28 +897,39 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +937,10 @@
         <v>9382023</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -787,28 +958,41 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,10 +1000,10 @@
         <v>9382023</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -837,28 +1021,41 @@
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,10 +1063,10 @@
         <v>9382023</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -887,28 +1084,41 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,10 +1126,10 @@
         <v>9578276</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -937,39 +1147,50 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9578276</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -987,39 +1208,50 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10677406</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -1037,39 +1269,52 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11176729</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -1087,39 +1332,52 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>17151160</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -1137,39 +1395,50 @@
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>23892921</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1187,39 +1456,50 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>24659727</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1237,39 +1517,50 @@
         <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>24802403</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -1287,39 +1578,50 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>24840785</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
@@ -1337,28 +1639,41 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>94</v>
+        <v>25</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,10 +1681,10 @@
         <v>24840785</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -1387,39 +1702,52 @@
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>24928523</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -1437,28 +1765,39 @@
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
